--- a/results/mp/logistic/corona/confidence/210/0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="126">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,46 +40,61 @@
     <t>name</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>hell</t>
+    <t>die</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>sc</t>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>panic</t>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>cut</t>
   </si>
   <si>
     <t>avoid</t>
@@ -88,19 +103,13 @@
     <t>lower</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>empty</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>empty</t>
+    <t>risk</t>
   </si>
   <si>
     <t>stop</t>
@@ -109,36 +118,51 @@
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>on</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>of</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>corona</t>
+    <t>in</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>and</t>
   </si>
   <si>
@@ -148,121 +172,136 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>free</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>ensure</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>true</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>giving</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>giving</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>growth</t>
   </si>
   <si>
     <t>funny</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>care</t>
@@ -271,39 +310,27 @@
     <t>safety</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>helping</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>increased</t>
   </si>
   <si>
@@ -322,31 +349,37 @@
     <t>stay</t>
   </si>
   <si>
+    <t>need</t>
+  </si>
+  <si>
     <t>our</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>amp</t>
   </si>
   <si>
+    <t>all</t>
+  </si>
+  <si>
     <t>!</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>we</t>
+    <t>online</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>for</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>for</t>
+    <t>?</t>
   </si>
   <si>
     <t>food</t>
@@ -355,16 +388,7 @@
     <t>i</t>
   </si>
   <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>?</t>
+    <t>at</t>
   </si>
   <si>
     <t>store</t>
@@ -725,7 +749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,10 +757,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -794,13 +818,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7842465753424658</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C3">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -812,19 +836,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -836,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -844,13 +868,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7368421052631579</v>
+        <v>0.7808219178082192</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -862,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -886,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -915,16 +939,16 @@
         <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>0.925</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -936,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -944,13 +968,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6923076923076923</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -962,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L6">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="M6">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -986,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -994,13 +1018,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6896551724137931</v>
+        <v>0.6</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1012,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K7">
-        <v>0.8947368421052632</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1036,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1044,13 +1068,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6470588235294118</v>
+        <v>0.6</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1062,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="K8">
-        <v>0.8846153846153846</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1086,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1094,13 +1118,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1112,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9">
+        <v>0.8448275862068966</v>
+      </c>
+      <c r="L9">
         <v>49</v>
       </c>
-      <c r="K9">
-        <v>0.875</v>
-      </c>
-      <c r="L9">
-        <v>98</v>
-      </c>
       <c r="M9">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1136,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1144,13 +1168,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5833333333333334</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1162,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K10">
-        <v>0.8720626631853786</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L10">
-        <v>334</v>
+        <v>16</v>
       </c>
       <c r="M10">
-        <v>334</v>
+        <v>16</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1186,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>49</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1194,13 +1218,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5652173913043478</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1212,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="K11">
-        <v>0.8666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L11">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M11">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1236,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1244,38 +1268,38 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5294117647058824</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="C12">
+        <v>96</v>
+      </c>
+      <c r="D12">
+        <v>96</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>93</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="L12">
         <v>27</v>
       </c>
-      <c r="D12">
+      <c r="M12">
         <v>27</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>24</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L12">
-        <v>15</v>
-      </c>
-      <c r="M12">
-        <v>15</v>
-      </c>
       <c r="N12">
         <v>1</v>
       </c>
@@ -1286,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1294,13 +1318,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4864864864864865</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1312,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K13">
-        <v>0.8301886792452831</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L13">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="M13">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1336,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1344,13 +1368,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4497354497354497</v>
+        <v>0.4375</v>
       </c>
       <c r="C14">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1362,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="K14">
-        <v>0.8203125</v>
+        <v>0.8125</v>
       </c>
       <c r="L14">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M14">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1386,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1394,13 +1418,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4406779661016949</v>
+        <v>0.436046511627907</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>225</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>225</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1412,19 +1436,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>33</v>
+        <v>291</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K15">
-        <v>0.8181818181818182</v>
+        <v>0.8067885117493473</v>
       </c>
       <c r="L15">
-        <v>18</v>
+        <v>309</v>
       </c>
       <c r="M15">
-        <v>18</v>
+        <v>309</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1436,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1444,13 +1468,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4244186046511628</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="C16">
-        <v>219</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>219</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1462,19 +1486,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>297</v>
+        <v>34</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="K16">
-        <v>0.8170731707317073</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L16">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1486,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1494,13 +1518,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3454545454545455</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1512,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="K17">
-        <v>0.80625</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L17">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1536,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1544,13 +1568,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3214285714285715</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1562,19 +1586,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K18">
-        <v>0.7948717948717948</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1586,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1594,13 +1618,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3154362416107382</v>
+        <v>0.3288590604026846</v>
       </c>
       <c r="C19">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D19">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1612,19 +1636,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="K19">
-        <v>0.7816901408450704</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L19">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1636,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1644,13 +1668,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3066666666666666</v>
+        <v>0.28</v>
       </c>
       <c r="C20">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1662,19 +1686,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K20">
-        <v>0.7777777777777778</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1686,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1694,13 +1718,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2416666666666667</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C21">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1712,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>273</v>
+        <v>40</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="K21">
-        <v>0.7758620689655172</v>
+        <v>0.765625</v>
       </c>
       <c r="L21">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="M21">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1736,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1744,13 +1768,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1875</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1762,19 +1786,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="K22">
-        <v>0.7575757575757576</v>
+        <v>0.7625</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1786,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1794,7 +1818,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1444444444444444</v>
+        <v>0.2321428571428572</v>
       </c>
       <c r="C23">
         <v>13</v>
@@ -1812,19 +1836,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="K23">
         <v>0.75</v>
       </c>
       <c r="L23">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="M23">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1836,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1844,13 +1868,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1428571428571428</v>
+        <v>0.2</v>
       </c>
       <c r="C24">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D24">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1862,19 +1886,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K24">
-        <v>0.746031746031746</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L24">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1886,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1894,13 +1918,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.06970509383378017</v>
+        <v>0.1972222222222222</v>
       </c>
       <c r="C25">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="D25">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1912,19 +1936,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>347</v>
+        <v>289</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K25">
-        <v>0.7446808510638298</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L25">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M25">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1936,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1944,37 +1968,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01771479185119575</v>
+        <v>0.1688311688311688</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E26">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>1109</v>
+        <v>64</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K26">
-        <v>0.7407407407407407</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1986,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1994,37 +2018,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.01686668829062601</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="C27">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D27">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="E27">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.6799999999999999</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>3031</v>
+        <v>220</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K27">
-        <v>0.6818181818181818</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2036,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2044,37 +2068,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.0157312925170068</v>
+        <v>0.09115281501340483</v>
       </c>
       <c r="C28">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D28">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E28">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.5800000000000001</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>2315</v>
+        <v>339</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="K28">
-        <v>0.675</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L28">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M28">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2086,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2094,37 +2118,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01413094677343382</v>
+        <v>0.06</v>
       </c>
       <c r="C29">
+        <v>18</v>
+      </c>
+      <c r="D29">
+        <v>18</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>282</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K29">
+        <v>0.6976744186046512</v>
+      </c>
+      <c r="L29">
         <v>30</v>
       </c>
-      <c r="D29">
-        <v>50</v>
-      </c>
-      <c r="E29">
-        <v>0.4</v>
-      </c>
-      <c r="F29">
-        <v>0.6</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>2093</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K29">
-        <v>0.6511627906976745</v>
-      </c>
-      <c r="L29">
-        <v>28</v>
-      </c>
       <c r="M29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2136,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2144,37 +2168,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.01182033096926714</v>
+        <v>0.02106969205834684</v>
       </c>
       <c r="C30">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>0.6</v>
+        <v>0.43</v>
       </c>
       <c r="F30">
-        <v>0.4</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>5016</v>
+        <v>604</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K30">
-        <v>0.6428571428571429</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L30">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M30">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2186,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2194,37 +2218,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.00892018779342723</v>
+        <v>0.01781665046971169</v>
       </c>
       <c r="C31">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D31">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="E31">
-        <v>0.64</v>
+        <v>0.27</v>
       </c>
       <c r="F31">
-        <v>0.36</v>
+        <v>0.73</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>4222</v>
+        <v>3032</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="K31">
-        <v>0.6411764705882353</v>
+        <v>0.68</v>
       </c>
       <c r="L31">
-        <v>218</v>
+        <v>34</v>
       </c>
       <c r="M31">
-        <v>218</v>
+        <v>34</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2236,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>122</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2244,37 +2268,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.008771929824561403</v>
+        <v>0.01678445229681979</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E32">
-        <v>0.59</v>
+        <v>0.3</v>
       </c>
       <c r="F32">
-        <v>0.41</v>
+        <v>0.7</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>2260</v>
+        <v>1113</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K32">
-        <v>0.64</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2286,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2294,37 +2318,37 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.007939028262940616</v>
+        <v>0.01441899915182358</v>
       </c>
       <c r="C33">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D33">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="E33">
-        <v>0.68</v>
+        <v>0.38</v>
       </c>
       <c r="F33">
-        <v>0.32</v>
+        <v>0.62</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>3124</v>
+        <v>2324</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="K33">
-        <v>0.6307692307692307</v>
+        <v>0.65</v>
       </c>
       <c r="L33">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2336,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2344,37 +2368,37 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.007515657620041753</v>
+        <v>0.01222378937470616</v>
       </c>
       <c r="C34">
+        <v>26</v>
+      </c>
+      <c r="D34">
+        <v>42</v>
+      </c>
+      <c r="E34">
+        <v>0.38</v>
+      </c>
+      <c r="F34">
+        <v>0.62</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>2101</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K34">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L34">
         <v>18</v>
       </c>
-      <c r="D34">
-        <v>68</v>
-      </c>
-      <c r="E34">
-        <v>0.74</v>
-      </c>
-      <c r="F34">
-        <v>0.26</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>2377</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K34">
-        <v>0.6285714285714286</v>
-      </c>
-      <c r="L34">
-        <v>22</v>
-      </c>
       <c r="M34">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2386,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2394,37 +2418,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.007115267330758284</v>
+        <v>0.01184834123222749</v>
       </c>
       <c r="C35">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D35">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="E35">
-        <v>0.6899999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="F35">
-        <v>0.3100000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>4884</v>
+        <v>1251</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K35">
-        <v>0.6071428571428571</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2436,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2444,271 +2468,463 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005380476556495004</v>
+        <v>0.01126516464471404</v>
       </c>
       <c r="C36">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36">
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <v>0.35</v>
+      </c>
+      <c r="F36">
+        <v>0.65</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1141</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K36">
+        <v>0.6323529411764706</v>
+      </c>
+      <c r="L36">
+        <v>215</v>
+      </c>
+      <c r="M36">
+        <v>215</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.009831906121154456</v>
+      </c>
+      <c r="C37">
+        <v>31</v>
+      </c>
+      <c r="D37">
+        <v>79</v>
+      </c>
+      <c r="E37">
+        <v>0.61</v>
+      </c>
+      <c r="F37">
+        <v>0.39</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>3122</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E36">
-        <v>0.84</v>
-      </c>
-      <c r="F36">
-        <v>0.16</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>2588</v>
-      </c>
-      <c r="J36" s="1" t="s">
+      <c r="K37">
+        <v>0.6</v>
+      </c>
+      <c r="L37">
+        <v>39</v>
+      </c>
+      <c r="M37">
+        <v>39</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.009370543898961092</v>
+      </c>
+      <c r="C38">
+        <v>46</v>
+      </c>
+      <c r="D38">
+        <v>133</v>
+      </c>
+      <c r="E38">
+        <v>0.65</v>
+      </c>
+      <c r="F38">
+        <v>0.35</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>4863</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K38">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="L38">
+        <v>56</v>
+      </c>
+      <c r="M38">
+        <v>56</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.009235606209471409</v>
+      </c>
+      <c r="C39">
+        <v>47</v>
+      </c>
+      <c r="D39">
+        <v>123</v>
+      </c>
+      <c r="E39">
+        <v>0.62</v>
+      </c>
+      <c r="F39">
+        <v>0.38</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>5042</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K39">
+        <v>0.5941422594142259</v>
+      </c>
+      <c r="L39">
+        <v>142</v>
+      </c>
+      <c r="M39">
+        <v>142</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.009210526315789473</v>
+      </c>
+      <c r="C40">
+        <v>21</v>
+      </c>
+      <c r="D40">
+        <v>50</v>
+      </c>
+      <c r="E40">
+        <v>0.58</v>
+      </c>
+      <c r="F40">
+        <v>0.42</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>2259</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K40">
+        <v>0.5830508474576271</v>
+      </c>
+      <c r="L40">
+        <v>172</v>
+      </c>
+      <c r="M40">
+        <v>172</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.00842893935846406</v>
+      </c>
+      <c r="C41">
+        <v>36</v>
+      </c>
+      <c r="D41">
+        <v>93</v>
+      </c>
+      <c r="E41">
+        <v>0.61</v>
+      </c>
+      <c r="F41">
+        <v>0.39</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>4235</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K41">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L41">
+        <v>40</v>
+      </c>
+      <c r="M41">
+        <v>40</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.007085498346717053</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>56</v>
+      </c>
+      <c r="E42">
+        <v>0.73</v>
+      </c>
+      <c r="F42">
+        <v>0.27</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>2102</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K42">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L42">
+        <v>16</v>
+      </c>
+      <c r="M42">
+        <v>16</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.006257822277847309</v>
+      </c>
+      <c r="C43">
+        <v>15</v>
+      </c>
+      <c r="D43">
+        <v>63</v>
+      </c>
+      <c r="E43">
+        <v>0.76</v>
+      </c>
+      <c r="F43">
+        <v>0.24</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>2382</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K43">
+        <v>0.5652173913043478</v>
+      </c>
+      <c r="L43">
+        <v>13</v>
+      </c>
+      <c r="M43">
+        <v>13</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.004980842911877395</v>
+      </c>
+      <c r="C44">
+        <v>13</v>
+      </c>
+      <c r="D44">
         <v>76</v>
       </c>
-      <c r="K36">
-        <v>0.6060606060606061</v>
-      </c>
-      <c r="L36">
-        <v>20</v>
-      </c>
-      <c r="M36">
-        <v>20</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
+      <c r="E44">
+        <v>0.83</v>
+      </c>
+      <c r="F44">
+        <v>0.17</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>2597</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K44">
+        <v>0.5652173913043478</v>
+      </c>
+      <c r="L44">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K37">
-        <v>0.5966101694915255</v>
-      </c>
-      <c r="L37">
-        <v>176</v>
-      </c>
-      <c r="M37">
-        <v>176</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K38">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L38">
-        <v>14</v>
-      </c>
-      <c r="M38">
-        <v>14</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
+      <c r="M44">
+        <v>13</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K39">
-        <v>0.5798319327731093</v>
-      </c>
-      <c r="L39">
-        <v>138</v>
-      </c>
-      <c r="M39">
-        <v>139</v>
-      </c>
-      <c r="N39">
-        <v>0.99</v>
-      </c>
-      <c r="O39">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K40">
-        <v>0.5652173913043478</v>
-      </c>
-      <c r="L40">
-        <v>13</v>
-      </c>
-      <c r="M40">
-        <v>13</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K41">
-        <v>0.5638297872340425</v>
-      </c>
-      <c r="L41">
-        <v>53</v>
-      </c>
-      <c r="M41">
-        <v>53</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K42">
-        <v>0.5571428571428572</v>
-      </c>
-      <c r="L42">
-        <v>39</v>
-      </c>
-      <c r="M42">
-        <v>39</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K43">
-        <v>0.5393258426966292</v>
-      </c>
-      <c r="L43">
-        <v>48</v>
-      </c>
-      <c r="M43">
-        <v>48</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K44">
-        <v>0.5294117647058824</v>
-      </c>
-      <c r="L44">
-        <v>27</v>
-      </c>
-      <c r="M44">
-        <v>27</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="K45">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L45">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M45">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2720,15 +2936,15 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="K46">
-        <v>0.5</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L46">
         <v>13</v>
@@ -2746,73 +2962,73 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="K47">
-        <v>0.4814814814814815</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="L47">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M47">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="K48">
-        <v>0.4634146341463415</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="M48">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="N48">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K49">
-        <v>0.3972602739726027</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="L49">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M49">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2824,15 +3040,15 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K50">
-        <v>0.3823529411764706</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L50">
         <v>13</v>
@@ -2850,21 +3066,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="K51">
-        <v>0.3559322033898305</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L51">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M51">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2876,21 +3092,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K52">
-        <v>0.3555555555555556</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L52">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M52">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2902,21 +3118,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K53">
-        <v>0.2786885245901639</v>
+        <v>0.375</v>
       </c>
       <c r="L53">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M53">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2928,21 +3144,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K54">
-        <v>0.2456140350877193</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L54">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M54">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2954,21 +3170,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K55">
-        <v>0.21875</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L55">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M55">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2980,15 +3196,15 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K56">
-        <v>0.2083333333333333</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L56">
         <v>15</v>
@@ -3006,21 +3222,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K57">
-        <v>0.1048387096774194</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L57">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M57">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3032,21 +3248,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>111</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K58">
-        <v>0.07567567567567568</v>
+        <v>0.1048387096774194</v>
       </c>
       <c r="L58">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M58">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3058,21 +3274,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>171</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K59">
-        <v>0.05484460694698354</v>
+        <v>0.07567567567567568</v>
       </c>
       <c r="L59">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M59">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3084,73 +3300,73 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>517</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K60">
-        <v>0.05254378648874062</v>
+        <v>0.05860805860805861</v>
       </c>
       <c r="L60">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="M60">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="N60">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O60">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>1136</v>
+        <v>514</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K61">
-        <v>0.0487012987012987</v>
+        <v>0.05175292153589316</v>
       </c>
       <c r="L61">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="M61">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>293</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="K62">
-        <v>0.0430622009569378</v>
+        <v>0.0487012987012987</v>
       </c>
       <c r="L62">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M62">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3162,15 +3378,15 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>400</v>
+        <v>293</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K63">
-        <v>0.03724928366762178</v>
+        <v>0.04498269896193772</v>
       </c>
       <c r="L63">
         <v>13</v>
@@ -3188,631 +3404,683 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>336</v>
+        <v>276</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K64">
-        <v>0.03549695740365112</v>
+        <v>0.0407673860911271</v>
       </c>
       <c r="L64">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="M64">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="N64">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O64">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>951</v>
+        <v>400</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K65">
-        <v>0.03373493975903614</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="L65">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M65">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N65">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="K66">
-        <v>0.02670176758179767</v>
+        <v>0.03724928366762178</v>
       </c>
       <c r="L66">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M66">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="N66">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>2588</v>
+        <v>336</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K67">
-        <v>0.02666666666666667</v>
+        <v>0.03512014787430684</v>
       </c>
       <c r="L67">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M67">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N67">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="O67">
-        <v>0.24</v>
+        <v>0.14</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>584</v>
+        <v>522</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K68">
-        <v>0.02111111111111111</v>
+        <v>0.03252032520325204</v>
       </c>
       <c r="L68">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M68">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="N68">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="O68">
-        <v>0.05000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>881</v>
+        <v>952</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="K69">
-        <v>0.02060156571899464</v>
+        <v>0.03110047846889952</v>
       </c>
       <c r="L69">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M69">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="N69">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>2377</v>
+        <v>405</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K70">
-        <v>0.01954652071931196</v>
+        <v>0.02610966057441253</v>
       </c>
       <c r="L70">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M70">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="N70">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="O70">
-        <v>0.29</v>
+        <v>0.17</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>1254</v>
+        <v>746</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K71">
-        <v>0.01879699248120301</v>
+        <v>0.0258349086326402</v>
       </c>
       <c r="L71">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="M71">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="N71">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="O71">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>783</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="K72">
-        <v>0.01831964624131396</v>
+        <v>0.02368421052631579</v>
       </c>
       <c r="L72">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="M72">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="N72">
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
       <c r="O72">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>1554</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K73">
-        <v>0.01767151767151767</v>
+        <v>0.02219755826859045</v>
       </c>
       <c r="L73">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M73">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N73">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>945</v>
+        <v>881</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="K74">
-        <v>0.01743388834476004</v>
+        <v>0.0204935173567545</v>
       </c>
       <c r="L74">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="M74">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="N74">
-        <v>0.6</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O74">
-        <v>0.4</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>5016</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="K75">
-        <v>0.01732435033686237</v>
+        <v>0.01975308641975309</v>
       </c>
       <c r="L75">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="M75">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="N75">
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="O75">
-        <v>0.05000000000000004</v>
+        <v>0.24</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>1021</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K76">
-        <v>0.01697416974169742</v>
+        <v>0.01970954356846473</v>
       </c>
       <c r="L76">
+        <v>19</v>
+      </c>
+      <c r="M76">
         <v>23</v>
       </c>
-      <c r="M76">
-        <v>31</v>
-      </c>
       <c r="N76">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="O76">
-        <v>0.26</v>
+        <v>0.17</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>1332</v>
+        <v>945</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K77">
-        <v>0.01697127937336815</v>
+        <v>0.0192492781520693</v>
       </c>
       <c r="L77">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M77">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N77">
-        <v>0.76</v>
+        <v>0.95</v>
       </c>
       <c r="O77">
-        <v>0.24</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>753</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="K78">
-        <v>0.01675977653631285</v>
+        <v>0.01913205786280914</v>
       </c>
       <c r="L78">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M78">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="N78">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
       <c r="O78">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>2112</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="K79">
-        <v>0.0163727959697733</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="L79">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="M79">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="N79">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="O79">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>3124</v>
+        <v>856</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="K80">
-        <v>0.01590623691921306</v>
+        <v>0.01805337519623234</v>
       </c>
       <c r="L80">
+        <v>23</v>
+      </c>
+      <c r="M80">
         <v>38</v>
       </c>
-      <c r="M80">
-        <v>43</v>
-      </c>
       <c r="N80">
-        <v>0.88</v>
+        <v>0.61</v>
       </c>
       <c r="O80">
-        <v>0.12</v>
+        <v>0.39</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>2351</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K81">
-        <v>0.01585081585081585</v>
+        <v>0.01757575757575757</v>
       </c>
       <c r="L81">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="M81">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="N81">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="O81">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>4222</v>
+        <v>4863</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="K82">
-        <v>0.01569506726457399</v>
+        <v>0.01683501683501683</v>
       </c>
       <c r="L82">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M82">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N82">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="O82">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K83">
-        <v>0.01552106430155211</v>
+        <v>0.01514195583596215</v>
       </c>
       <c r="L83">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="M83">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="N83">
-        <v>0.6899999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="O83">
-        <v>0.3100000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>4884</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K84">
-        <v>0.0126692878986457</v>
+        <v>0.01484955060570535</v>
       </c>
       <c r="L84">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="M84">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="N84">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="O84">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>2260</v>
+        <v>5042</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="K85">
-        <v>0.01152860802732707</v>
+        <v>0.01328052190121156</v>
       </c>
       <c r="L85">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="M85">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="N85">
-        <v>0.42</v>
+        <v>0.61</v>
       </c>
       <c r="O85">
-        <v>0.5800000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>2315</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="K86">
-        <v>0.00946521533364884</v>
+        <v>0.01267482517482517</v>
       </c>
       <c r="L86">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M86">
         <v>50</v>
       </c>
       <c r="N86">
-        <v>0.4</v>
+        <v>0.58</v>
       </c>
       <c r="O86">
-        <v>0.6</v>
+        <v>0.42</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>2093</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K87">
-        <v>0.007855973813420621</v>
+        <v>0.008955223880597015</v>
       </c>
       <c r="L87">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M87">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="N87">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="O87">
-        <v>0.6799999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>3031</v>
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K88">
+        <v>0.007557864903164856</v>
+      </c>
+      <c r="L88">
+        <v>16</v>
+      </c>
+      <c r="M88">
+        <v>42</v>
+      </c>
+      <c r="N88">
+        <v>0.38</v>
+      </c>
+      <c r="O88">
+        <v>0.62</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K89">
+        <v>0.00655307994757536</v>
+      </c>
+      <c r="L89">
+        <v>20</v>
+      </c>
+      <c r="M89">
+        <v>75</v>
+      </c>
+      <c r="N89">
+        <v>0.27</v>
+      </c>
+      <c r="O89">
+        <v>0.73</v>
+      </c>
+      <c r="P89" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>3032</v>
       </c>
     </row>
   </sheetData>
